--- a/Tests/Tests analysis.xlsx
+++ b/Tests/Tests analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cimpress-my.sharepoint.com/personal/conrado_camacho_pixartprinting_com/Documents/Personal Projects/Coursera - Machine Learning for All/Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="290" documentId="8_{84C466D8-DD55-4C5A-A7E8-5D2855895E6D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E3F7679B-5B7B-453D-8B25-6832729C5342}"/>
+  <xr:revisionPtr revIDLastSave="300" documentId="8_{84C466D8-DD55-4C5A-A7E8-5D2855895E6D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{39A0BC8E-8F63-4C3F-A1A0-551190EC9648}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" tabRatio="304" xr2:uid="{F7ABE51E-3797-467D-9219-57BA1CE44718}"/>
   </bookViews>
@@ -256,7 +256,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +273,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -594,7 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -738,6 +746,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -756,16 +776,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1085,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C04106-E080-4AEE-8D67-60DF340804EE}">
   <dimension ref="A1:I389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1105,16 +1116,16 @@
       <c r="A1" s="24"/>
       <c r="B1" s="33"/>
       <c r="C1" s="25"/>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="26" t="s">
@@ -2203,20 +2214,20 @@
       <c r="A43" s="47"/>
       <c r="B43" s="48"/>
       <c r="C43" s="47"/>
-      <c r="D43" s="56" t="s">
+      <c r="D43" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="55">
-        <f>COUNTIFS(E3:E42,"Yes")/COUNTA(E3:E42)</f>
-        <v>0.52500000000000002</v>
+      <c r="E43" s="49">
+        <f>COUNTIFS(C3:C42,"&lt;&gt;N/A", E3:E42,"Yes")/COUNTIFS(C3:C42,"&lt;&gt;N/A")</f>
+        <v>0.65625</v>
       </c>
       <c r="F43" s="47"/>
-      <c r="G43" s="56" t="s">
+      <c r="G43" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="H43" s="55">
-        <f>COUNTIFS(H3:H42,"Yes")/COUNTA(H3:H42)</f>
-        <v>0.4</v>
+      <c r="H43" s="49">
+        <f>COUNTIFS(C3:C42,"&lt;&gt;N/A", H3:H42,"Yes")/COUNTIFS(C3:C42,"&lt;&gt;N/A")</f>
+        <v>0.5</v>
       </c>
       <c r="I43" s="47"/>
     </row>
@@ -2224,18 +2235,18 @@
       <c r="A44" s="4"/>
       <c r="B44" s="46"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="57" t="s">
+      <c r="D44" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="58">
+      <c r="E44" s="52">
         <f>COUNTIFS(D3:D42,"Tintin", C3:C42,"Tintin")/COUNTIFS(C3:C42,"Tintin")</f>
         <v>0.91666666666666663</v>
       </c>
       <c r="F44" s="4"/>
-      <c r="G44" s="57" t="s">
+      <c r="G44" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="H44" s="58">
+      <c r="H44" s="52">
         <f>COUNTIFS(G3:G42,"Tintin", C3:C42,"Tintin")/COUNTIFS(C3:C42,"Tintin")</f>
         <v>0.91666666666666663</v>
       </c>
@@ -2245,18 +2256,18 @@
       <c r="A45" s="4"/>
       <c r="B45" s="46"/>
       <c r="C45" s="4"/>
-      <c r="D45" s="57" t="s">
+      <c r="D45" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="E45" s="58">
+      <c r="E45" s="52">
         <f>COUNTIFS(D3:D42,"Haddock", C3:C42,"Haddock")/COUNTIFS(C3:C42,"Haddock")</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="F45" s="4"/>
-      <c r="G45" s="57" t="s">
+      <c r="G45" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="H45" s="58">
+      <c r="H45" s="52">
         <f>COUNTIFS(G3:G42,"Haddock", C3:C42,"Haddock")/COUNTIFS(C3:C42,"Haddock")</f>
         <v>0.66666666666666663</v>
       </c>
@@ -2266,18 +2277,18 @@
       <c r="A46" s="4"/>
       <c r="B46" s="46"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="57" t="s">
+      <c r="D46" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="58">
+      <c r="E46" s="52">
         <f>COUNTIFS(D3:D42,"Milu", C3:C42,"Milu")/COUNTIFS(C3:C42,"Milu")</f>
         <v>0.375</v>
       </c>
       <c r="F46" s="4"/>
-      <c r="G46" s="57" t="s">
+      <c r="G46" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="H46" s="58" t="s">
+      <c r="H46" s="52" t="s">
         <v>51</v>
       </c>
       <c r="I46" s="4"/>
@@ -2286,17 +2297,17 @@
       <c r="A47" s="4"/>
       <c r="B47" s="46"/>
       <c r="C47" s="4"/>
-      <c r="D47" s="57" t="s">
+      <c r="D47" s="51" t="s">
         <v>72</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F47" s="4"/>
-      <c r="G47" s="57" t="s">
+      <c r="G47" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="59">
         <f>COUNTIFS(G3:G42,"Tornassol", C3:C42,"Tornassol")/COUNTIFS(C3:C42,"Tornassol")</f>
         <v>0</v>
       </c>
@@ -6084,6 +6095,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C03E5B24624B55478E603BF2AE58F0DD" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aabf12cad4053188dd493afe70db853f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="eb052467-6cb6-4b5e-ba17-cdecdda397d4" xmlns:ns4="6f5d2a8a-409b-4811-897f-e5fb4b5dea18" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="58add8c5227bd8f2b0717a537c3dbc36" ns3:_="" ns4:_="">
     <xsd:import namespace="eb052467-6cb6-4b5e-ba17-cdecdda397d4"/>
@@ -6306,12 +6323,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84D4A231-EC91-4885-B0CB-D8E689764F61}">
   <ds:schemaRefs>
@@ -6321,6 +6332,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E219624-504E-4AAB-8AC6-36BED8A35B22}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="6f5d2a8a-409b-4811-897f-e5fb4b5dea18"/>
+    <ds:schemaRef ds:uri="eb052467-6cb6-4b5e-ba17-cdecdda397d4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7391F7B1-D2B4-49E4-8C30-5EEDCDC67693}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6337,21 +6365,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E219624-504E-4AAB-8AC6-36BED8A35B22}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="6f5d2a8a-409b-4811-897f-e5fb4b5dea18"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="eb052467-6cb6-4b5e-ba17-cdecdda397d4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>